--- a/biology/Zoologie/Chelodina_mccordi/Chelodina_mccordi.xlsx
+++ b/biology/Zoologie/Chelodina_mccordi/Chelodina_mccordi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chelodina mccordi est une espèce de tortue de la famille des Chelidae[1]. Cette espèce est endémique des Petites îles de la Sonde en Indonésie et au Timor oriental. Elle est considérée comme une espèce en danger critique d’extinction. Les individus de cette espèce sont carnivores et se nourrissent de poissons, de petits amphibiens, mammifères ainsi que de mollusques.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chelodina mccordi est une espèce de tortue de la famille des Chelidae. Cette espèce est endémique des Petites îles de la Sonde en Indonésie et au Timor oriental. Elle est considérée comme une espèce en danger critique d’extinction. Les individus de cette espèce sont carnivores et se nourrissent de poissons, de petits amphibiens, mammifères ainsi que de mollusques.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans les Petites îles de la Sonde en Indonésie et au Timor oriental[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans les Petites îles de la Sonde en Indonésie et au Timor oriental.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon TFTSG  (04 fév. 2011)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon TFTSG  (04 fév. 2011) :
 Chelodina mccordi mccordi Rhodin, 1994 de l'île Rote
 Chelodina mccordi timorensis McCord, Joseph-Ouni &amp; Hagen, 2007 de l'île de Timor</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de William Patrick McCord[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de William Patrick McCord.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Rhodin, 1994 : Chelid turtles of the Australasian Archipelago: II. A new species of Chelodina from Roti Island, Indonesia. Breviora, no 498, p. 1-31 (texte intégral).
 McCord, Joseph-Ouni &amp; Hagen, 2007 : A new subspecies of Chelodina mccordi (Testudines: Chelidae) from Eastern Rote Island, Indonesia. Reptilia, vol. 52, p. 53–57 (texte intégral).
